--- a/Strata_evaluation_v1/RECALC_010strat_perform.xlsx
+++ b/Strata_evaluation_v1/RECALC_010strat_perform.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1095" windowWidth="19560" windowHeight="9525" tabRatio="896" activeTab="1"/>
+    <workbookView xWindow="2100" yWindow="1092" windowWidth="16608" windowHeight="9432" tabRatio="896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All_obs_spring" sheetId="4" r:id="rId1"/>
@@ -1355,13 +1355,13 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="5"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26">
@@ -5010,36 +5010,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:BD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="22" max="22" width="11.140625" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="1"/>
+    <col min="22" max="22" width="11.109375" customWidth="1"/>
+    <col min="26" max="26" width="15.88671875" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="21.5703125" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" customWidth="1"/>
-    <col min="43" max="43" width="9.85546875" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="1"/>
-    <col min="47" max="47" width="11.140625" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" customWidth="1"/>
-    <col min="51" max="51" width="10.7109375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="11.140625" customWidth="1"/>
+    <col min="28" max="28" width="16.88671875" customWidth="1"/>
+    <col min="29" max="29" width="15.109375" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" customWidth="1"/>
+    <col min="32" max="32" width="21.5546875" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" customWidth="1"/>
+    <col min="35" max="35" width="14.6640625" customWidth="1"/>
+    <col min="36" max="36" width="11.44140625" customWidth="1"/>
+    <col min="43" max="43" width="9.88671875" customWidth="1"/>
+    <col min="44" max="44" width="9.109375" style="1"/>
+    <col min="47" max="47" width="11.109375" customWidth="1"/>
+    <col min="48" max="48" width="9.109375" customWidth="1"/>
+    <col min="51" max="51" width="10.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:56" s="1" customFormat="1">
@@ -5324,7 +5324,7 @@
         <v>640</v>
       </c>
       <c r="AD3">
-        <f>AC3*30*30</f>
+        <f t="shared" ref="AD3:AD8" si="0">AC3*30*30</f>
         <v>576000</v>
       </c>
       <c r="AE3">
@@ -5445,7 +5445,7 @@
         <v>5.3331632526628888E-4</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O8" si="0">(E4-$M$3)^2</f>
+        <f t="shared" ref="O4:O8" si="1">(E4-$M$3)^2</f>
         <v>18.653282688212876</v>
       </c>
       <c r="P4">
@@ -5469,7 +5469,7 @@
         <v>1.6163606679463136</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U8" si="1">V4/W4</f>
+        <f t="shared" ref="U4:U8" si="2">V4/W4</f>
         <v>2.0725983326066563E-2</v>
       </c>
       <c r="V4" s="7">
@@ -5501,27 +5501,27 @@
         <v>757</v>
       </c>
       <c r="AD4">
-        <f>AC4*30*30</f>
+        <f t="shared" si="0"/>
         <v>681300</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE8" si="2">AD4/SUM($AD$3:$AD$8)</f>
+        <f t="shared" ref="AE4:AE8" si="3">AD4/SUM($AD$3:$AD$8)</f>
         <v>0.14975272007912957</v>
       </c>
       <c r="AF4">
-        <f t="shared" ref="AF4:AF8" si="3">Z4*AE4</f>
+        <f t="shared" ref="AF4:AF8" si="4">Z4*AE4</f>
         <v>0.62312219241635525</v>
       </c>
       <c r="AG4" s="13">
-        <f t="shared" ref="AG3:AG8" si="4">AJ4-(Z4^2)+AA4</f>
+        <f t="shared" ref="AG4:AG8" si="5">AJ4-(Z4^2)+AA4</f>
         <v>3.8640410785276584</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH8" si="5">(AG4/Y4)</f>
+        <f t="shared" ref="AH4:AH8" si="6">(AG4/Y4)</f>
         <v>0.42933789761418428</v>
       </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AI8" si="6">AH4*AE4^2</f>
+        <f t="shared" ref="AI4:AI8" si="7">AH4*AE4^2</f>
         <v>9.6282789567932042E-3</v>
       </c>
       <c r="AJ4">
@@ -5538,7 +5538,7 @@
         <v>149.61342999999999</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR50" si="7">E4^2</f>
+        <f t="shared" ref="AR4:AR50" si="8">E4^2</f>
         <v>0.83082681746888043</v>
       </c>
       <c r="AS4">
@@ -5577,7 +5577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:56" ht="15.75" thickBot="1">
+    <row r="5" spans="2:56" ht="15" thickBot="1">
       <c r="B5">
         <v>1</v>
       </c>
@@ -5602,11 +5602,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="19"/>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2267438527560097</v>
       </c>
       <c r="U5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8654128185817909E-2</v>
       </c>
       <c r="V5" s="7">
@@ -5631,34 +5631,34 @@
         <v>3.0180617598845969</v>
       </c>
       <c r="AB5" s="6">
-        <f t="shared" ref="AB5:AB8" si="8">SQRT(AA5)</f>
+        <f t="shared" ref="AB5:AB8" si="9">SQRT(AA5)</f>
         <v>1.7372569642642384</v>
       </c>
       <c r="AC5">
         <v>949</v>
       </c>
       <c r="AD5">
-        <f>AC5*30*30</f>
+        <f t="shared" si="0"/>
         <v>854100</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18773491592482691</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9401704433359549</v>
       </c>
       <c r="AG5" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3191639778558031</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90273771112225754</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1816447773773016E-2</v>
       </c>
       <c r="AJ5">
@@ -5675,7 +5675,7 @@
         <v>149.61263</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.4626856095388128</v>
       </c>
       <c r="AS5">
@@ -5703,7 +5703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:56" ht="15.75" thickTop="1">
+    <row r="6" spans="2:56" ht="15" thickTop="1">
       <c r="B6">
         <v>1</v>
       </c>
@@ -5725,11 +5725,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="19"/>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.389198050205659</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1602124539220738E-2</v>
       </c>
       <c r="V6" s="7">
@@ -5754,34 +5754,34 @@
         <v>8.1564733226461463</v>
       </c>
       <c r="AB6" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8559540126980592</v>
       </c>
       <c r="AC6">
         <v>1192</v>
       </c>
       <c r="AD6">
-        <f>AC6*30*30</f>
+        <f t="shared" si="0"/>
         <v>1072800</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23580613254203758</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3783904427790501</v>
       </c>
       <c r="AG6" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.73144828591845</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2731448285918452</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1263971546903869</v>
       </c>
       <c r="AJ6">
@@ -5798,7 +5798,7 @@
         <v>149.61229</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>81.428087343776667</v>
       </c>
       <c r="AS6">
@@ -5844,11 +5844,11 @@
       </c>
       <c r="H7" s="10"/>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76833339266912215</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0140512901819334E-2</v>
       </c>
       <c r="V7" s="7">
@@ -5873,34 +5873,34 @@
         <v>0.91641109113284924</v>
       </c>
       <c r="AB7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.95729362848232169</v>
       </c>
       <c r="AC7">
         <v>895</v>
       </c>
       <c r="AD7">
-        <f>AC7*30*30</f>
+        <f t="shared" si="0"/>
         <v>805500</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17705242334322452</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69952339338655989</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0118574363814048</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.66798415959793389</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0939673930657328E-2</v>
       </c>
       <c r="AJ7">
@@ -5917,7 +5917,7 @@
         <v>149.60973000000001</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.956404805829532</v>
       </c>
       <c r="AS7">
@@ -5955,11 +5955,11 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25380053195186547</v>
       </c>
       <c r="U8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0264378294819453E-2</v>
       </c>
       <c r="V8" s="7">
@@ -5984,34 +5984,34 @@
         <v>1.3368152093932149</v>
       </c>
       <c r="AB8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.156207251920353</v>
       </c>
       <c r="AC8">
         <v>622</v>
       </c>
       <c r="AD8">
-        <f>AC8*30*30</f>
+        <f t="shared" si="0"/>
         <v>559800</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12304648862512364</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.74221667842698713</v>
       </c>
       <c r="AG8" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8152455363668736</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96920758939447893</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4674227768152444E-2</v>
       </c>
       <c r="AJ8">
@@ -6028,7 +6028,7 @@
         <v>149.60909000000001</v>
       </c>
       <c r="AR8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22.341271743014701</v>
       </c>
       <c r="AS8">
@@ -6085,7 +6085,7 @@
         <v>149.60368</v>
       </c>
       <c r="AR9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39.876231367283225</v>
       </c>
       <c r="AS9">
@@ -6175,7 +6175,7 @@
         <v>149.60956999999999</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.5683088376502567</v>
       </c>
       <c r="AS10">
@@ -6239,7 +6239,7 @@
         <v>4.1110859600000005</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N13" si="9">(V4^2)/((W4*(W4-1)))</f>
+        <f t="shared" ref="N11:N13" si="10">(V4^2)/((W4*(W4-1)))</f>
         <v>4.9093301123701624E-4</v>
       </c>
       <c r="O11">
@@ -6251,7 +6251,7 @@
         <v>6</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q14" si="10">(M11-$L$14)^2</f>
+        <f t="shared" ref="Q11:Q14" si="11">(M11-$L$14)^2</f>
         <v>2.4921608371566962E-3</v>
       </c>
       <c r="R11">
@@ -6281,7 +6281,7 @@
         <v>149.60491999999999</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28.017722435738381</v>
       </c>
       <c r="AS11">
@@ -6341,7 +6341,7 @@
         <v>5.1870377100000002</v>
       </c>
       <c r="N12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9768742671191561E-4</v>
       </c>
       <c r="O12">
@@ -6353,7 +6353,7 @@
         <v>7</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0527379778323456</v>
       </c>
       <c r="R12">
@@ -6376,7 +6376,7 @@
         <v>149.60371000000001</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5790114171255016</v>
       </c>
       <c r="AS12">
@@ -6436,7 +6436,7 @@
         <v>5.2151411599999999</v>
       </c>
       <c r="N13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3331632526628888E-4</v>
       </c>
       <c r="O13">
@@ -6448,7 +6448,7 @@
         <v>5</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1111977587612216</v>
       </c>
       <c r="R13">
@@ -6479,7 +6479,7 @@
         <v>149.61251999999999</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26.905360204962047</v>
       </c>
       <c r="AS13">
@@ -6555,7 +6555,7 @@
         <v>6</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2314937612019436</v>
       </c>
       <c r="R14">
@@ -6597,7 +6597,7 @@
         <v>149.60255000000001</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66.89089798007366</v>
       </c>
       <c r="AS14">
@@ -6622,7 +6622,7 @@
         <v>20.434838654807017</v>
       </c>
     </row>
-    <row r="15" spans="2:56" ht="15.75" thickBot="1">
+    <row r="15" spans="2:56" ht="15" thickBot="1">
       <c r="B15">
         <v>4</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>149.60094000000001</v>
       </c>
       <c r="AR15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.027114899843999</v>
       </c>
       <c r="AS15">
@@ -6690,7 +6690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:56" ht="15.75" thickTop="1">
+    <row r="16" spans="2:56" ht="15" thickTop="1">
       <c r="B16">
         <v>4</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>149.59607</v>
       </c>
       <c r="AR16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.491512684937295</v>
       </c>
       <c r="AS16">
@@ -6799,14 +6799,14 @@
         <v>149.59838999999999</v>
       </c>
       <c r="AR17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5745844210329798</v>
       </c>
       <c r="AS17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:56" ht="15.75">
+    <row r="18" spans="2:56" ht="15.6">
       <c r="B18" s="10">
         <v>5</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>149.59592000000001</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.859213223850306</v>
       </c>
       <c r="AS18" s="10">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="AU18" s="10"/>
     </row>
-    <row r="19" spans="2:56" ht="15.75">
+    <row r="19" spans="2:56" ht="15.6">
       <c r="B19" s="10">
         <v>1</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>149.60614000000001</v>
       </c>
       <c r="AR19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.31487278382599</v>
       </c>
       <c r="AS19" s="10">
@@ -6955,7 +6955,7 @@
         <v>2.3612872752256001E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:56" ht="15.75">
+    <row r="20" spans="2:56" ht="15.6">
       <c r="B20" s="10">
         <v>2</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>5.9794201600000001</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N23" si="11">(V4^2)/((W4*(W4-1)))</f>
+        <f t="shared" ref="N20:N23" si="12">(V4^2)/((W4*(W4-1)))</f>
         <v>4.9093301123701624E-4</v>
       </c>
       <c r="O20">
@@ -7002,7 +7002,7 @@
         <v>5</v>
       </c>
       <c r="Q20">
-        <f t="shared" ref="Q20:Q23" si="12">(M20-$L$23)^2</f>
+        <f t="shared" ref="Q20:Q23" si="13">(M20-$L$23)^2</f>
         <v>0.943719382979189</v>
       </c>
       <c r="R20">
@@ -7031,7 +7031,7 @@
         <v>149.60878</v>
       </c>
       <c r="AR20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24.595144884288576</v>
       </c>
       <c r="AS20" s="10">
@@ -7087,11 +7087,11 @@
         <v>5.8976973199999998</v>
       </c>
       <c r="N21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.9768742671191561E-4</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O22" si="13">(E21-$M$20)^2</f>
+        <f t="shared" ref="O21:O22" si="14">(E21-$M$20)^2</f>
         <v>1.2020011492170961</v>
       </c>
       <c r="P21">
@@ -7099,7 +7099,7 @@
         <v>7</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.79161833962767458</v>
       </c>
       <c r="R21">
@@ -7116,7 +7116,7 @@
         <v>149.60504</v>
       </c>
       <c r="AR21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50.066638409235317</v>
       </c>
       <c r="AS21" s="10">
@@ -7172,11 +7172,11 @@
         <v>4.4506644</v>
       </c>
       <c r="N22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3331632526628888E-4</v>
       </c>
       <c r="O22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.8197384095841414E-3</v>
       </c>
       <c r="P22">
@@ -7184,11 +7184,11 @@
         <v>7</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.31058725449246222</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22" si="14">N22*((SUM(O24))+P22*Q22)</f>
+        <f t="shared" ref="R22" si="15">N22*((SUM(O24))+P22*Q22)</f>
         <v>1.1594887726832594E-3</v>
       </c>
       <c r="AO22" s="10">
@@ -7201,7 +7201,7 @@
         <v>149.61478</v>
       </c>
       <c r="AR22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34.846978625375698</v>
       </c>
       <c r="AS22" s="10">
@@ -7261,7 +7261,7 @@
         <v>0.88693042</v>
       </c>
       <c r="N23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6358886851240123E-4</v>
       </c>
       <c r="O23">
@@ -7273,7 +7273,7 @@
         <v>7</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.982950380236165</v>
       </c>
       <c r="R23">
@@ -7298,7 +7298,7 @@
         <v>149.61534</v>
       </c>
       <c r="AR23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34.78283367833518</v>
       </c>
       <c r="AS23" s="10">
@@ -7323,7 +7323,7 @@
         <v>28.380845274940572</v>
       </c>
     </row>
-    <row r="24" spans="2:56" ht="16.5" thickBot="1">
+    <row r="24" spans="2:56" ht="16.2" thickBot="1">
       <c r="B24" s="10">
         <v>4</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>149.60255000000001</v>
       </c>
       <c r="AR24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.808413601427361</v>
       </c>
       <c r="AS24" s="10">
@@ -7371,7 +7371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:56" ht="16.5" thickTop="1">
+    <row r="25" spans="2:56" ht="16.2" thickTop="1">
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>149.59518</v>
       </c>
       <c r="AR25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.78664556992137635</v>
       </c>
       <c r="AS25" s="10">
@@ -7413,7 +7413,7 @@
       <c r="AU25" s="10"/>
       <c r="BA25" s="14"/>
     </row>
-    <row r="26" spans="2:56" ht="26.25">
+    <row r="26" spans="2:56" ht="25.8">
       <c r="B26" s="10">
         <v>2</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>149.60946999999999</v>
       </c>
       <c r="AR26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>53.374034933337605</v>
       </c>
       <c r="AS26" s="10">
@@ -7542,7 +7542,7 @@
         <v>1.988115155</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27:N30" si="15">(V5^2)/((W5*(W5-1)))</f>
+        <f t="shared" ref="N27:N30" si="16">(V5^2)/((W5*(W5-1)))</f>
         <v>3.9768742671191561E-4</v>
       </c>
       <c r="O27">
@@ -7578,7 +7578,7 @@
         <v>149.61218</v>
       </c>
       <c r="AR27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20.373214612065063</v>
       </c>
       <c r="AS27" s="10">
@@ -7642,7 +7642,7 @@
         <v>7.3096099849999998</v>
       </c>
       <c r="N28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.3331632526628888E-4</v>
       </c>
       <c r="O28">
@@ -7671,7 +7671,7 @@
         <v>149.60543999999999</v>
       </c>
       <c r="AR28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.015960302139867</v>
       </c>
       <c r="AS28" s="10">
@@ -7731,7 +7731,7 @@
         <v>15.0558642</v>
       </c>
       <c r="N29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.6358886851240123E-4</v>
       </c>
       <c r="O29">
@@ -7760,7 +7760,7 @@
         <v>149.60989000000001</v>
       </c>
       <c r="AR29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.077796138581265</v>
       </c>
       <c r="AS29" s="10">
@@ -7824,7 +7824,7 @@
         <v>4.0113182700000003</v>
       </c>
       <c r="N30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.6930860305777113E-4</v>
       </c>
       <c r="O30">
@@ -7861,7 +7861,7 @@
         <v>149.61118999999999</v>
       </c>
       <c r="AR30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25091877259548484</v>
       </c>
       <c r="AS30" s="10">
@@ -7886,7 +7886,7 @@
         <v>48.744135991540134</v>
       </c>
     </row>
-    <row r="31" spans="2:56" ht="15.75" thickBot="1">
+    <row r="31" spans="2:56" ht="15" thickBot="1">
       <c r="B31" s="10">
         <v>4</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>149.60697999999999</v>
       </c>
       <c r="AR31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.158261981898463</v>
       </c>
       <c r="AS31" s="10">
@@ -7931,7 +7931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:56" ht="15.75" thickTop="1">
+    <row r="32" spans="2:56" ht="15" thickTop="1">
       <c r="B32" s="10">
         <v>4</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>149.61136999999999</v>
       </c>
       <c r="AR32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>84.996984179284823</v>
       </c>
       <c r="AS32" s="10">
@@ -7998,7 +7998,7 @@
         <v>149.60491999999999</v>
       </c>
       <c r="AR33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>226.67904680884166</v>
       </c>
       <c r="AS33" s="10">
@@ -8035,7 +8035,7 @@
         <v>149.59504999999999</v>
       </c>
       <c r="AR34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30.910232510912063</v>
       </c>
       <c r="AS34" s="10">
@@ -8073,7 +8073,7 @@
         <v>149.59907999999999</v>
       </c>
       <c r="AR35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.0660703895547838</v>
       </c>
       <c r="AS35" s="10">
@@ -8145,7 +8145,7 @@
         <v>149.61035000000001</v>
       </c>
       <c r="AR36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>71.455129534504962</v>
       </c>
       <c r="AS36" s="10">
@@ -8201,7 +8201,7 @@
         <v>3.3513914499999999</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N39" si="16">(V6^2)/((W6*(W6-1)))</f>
+        <f t="shared" ref="N37:N39" si="17">(V6^2)/((W6*(W6-1)))</f>
         <v>5.3331632526628888E-4</v>
       </c>
       <c r="O37">
@@ -8213,7 +8213,7 @@
         <v>7</v>
       </c>
       <c r="Q37">
-        <f t="shared" ref="Q37:Q39" si="17">(M37-$L$39)^2</f>
+        <f t="shared" ref="Q37:Q39" si="18">(M37-$L$39)^2</f>
         <v>0.35945773171389417</v>
       </c>
       <c r="R37">
@@ -8230,7 +8230,7 @@
         <v>149.61156</v>
       </c>
       <c r="AR37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.388591169551908</v>
       </c>
       <c r="AS37" s="10">
@@ -8286,7 +8286,7 @@
         <v>1.9875051499999998</v>
       </c>
       <c r="N38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.6358886851240123E-4</v>
       </c>
       <c r="O38">
@@ -8298,7 +8298,7 @@
         <v>6</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8550740126942253</v>
       </c>
       <c r="R38">
@@ -8315,7 +8315,7 @@
         <v>149.60898</v>
       </c>
       <c r="AR38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.7805202224969463</v>
       </c>
       <c r="AS38" s="10">
@@ -8375,7 +8375,7 @@
         <v>3.4409386749999999</v>
       </c>
       <c r="N39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.6930860305777113E-4</v>
       </c>
       <c r="O39">
@@ -8387,7 +8387,7 @@
         <v>6</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.26010072875240048</v>
       </c>
       <c r="R39">
@@ -8412,7 +8412,7 @@
         <v>149.61028999999999</v>
       </c>
       <c r="AR39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.969343418865888</v>
       </c>
       <c r="AS39" s="10">
@@ -8437,7 +8437,7 @@
         <v>20.705368404455953</v>
       </c>
     </row>
-    <row r="40" spans="2:51" ht="15.75" thickBot="1">
+    <row r="40" spans="2:51" ht="15" thickBot="1">
       <c r="B40" s="10">
         <v>4</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>149.61005</v>
       </c>
       <c r="AR40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.231824651133103</v>
       </c>
       <c r="AS40" s="10">
@@ -8484,7 +8484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:51" ht="15.75" thickTop="1">
+    <row r="41" spans="2:51" ht="15" thickTop="1">
       <c r="B41" s="10">
         <v>5</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>149.59950000000001</v>
       </c>
       <c r="AR41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6934207725222912</v>
       </c>
       <c r="AS41" s="10">
@@ -8554,7 +8554,7 @@
         <v>149.60316</v>
       </c>
       <c r="AR42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.74232769555504807</v>
       </c>
       <c r="AS42" s="10">
@@ -8593,7 +8593,7 @@
         <v>149.59509</v>
       </c>
       <c r="AR43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29.86859827804544</v>
       </c>
       <c r="AS43" s="10">
@@ -8632,7 +8632,7 @@
         <v>149.59741</v>
       </c>
       <c r="AR44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0069261789304487</v>
       </c>
       <c r="AS44" s="10">
@@ -8704,7 +8704,7 @@
         <v>149.59761</v>
       </c>
       <c r="AR45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23.427746008346457</v>
       </c>
       <c r="AS45">
@@ -8801,7 +8801,7 @@
         <v>149.59843000000001</v>
       </c>
       <c r="AR46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.917420901685286</v>
       </c>
       <c r="AS46">
@@ -8826,7 +8826,7 @@
         <v>40.863479724382813</v>
       </c>
     </row>
-    <row r="47" spans="2:51" ht="15.75" thickBot="1">
+    <row r="47" spans="2:51" ht="15" thickBot="1">
       <c r="B47">
         <v>6</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>149.59647000000001</v>
       </c>
       <c r="AR47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>83.558597655936637</v>
       </c>
       <c r="AS47">
@@ -8871,7 +8871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:51" ht="15.75" thickTop="1">
+    <row r="48" spans="2:51" ht="15" thickTop="1">
       <c r="B48">
         <v>6</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>6</v>
       </c>
       <c r="O48">
-        <f t="shared" ref="O48:O50" si="18">(E48-$M$46)^2</f>
+        <f t="shared" ref="O48:O50" si="19">(E48-$M$46)^2</f>
         <v>0.39490564788066007</v>
       </c>
       <c r="AO48">
@@ -8901,7 +8901,7 @@
         <v>149.59457</v>
       </c>
       <c r="AR48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58.283074709392565</v>
       </c>
       <c r="AS48">
@@ -8925,7 +8925,7 @@
         <v>6</v>
       </c>
       <c r="O49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.1890649527004413</v>
       </c>
       <c r="AO49">
@@ -8938,7 +8938,7 @@
         <v>149.59792999999999</v>
       </c>
       <c r="AR49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.797230611820458</v>
       </c>
       <c r="AS49">
@@ -8962,7 +8962,7 @@
         <v>6</v>
       </c>
       <c r="O50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.1723657010989234E-2</v>
       </c>
       <c r="AO50">
@@ -8975,20 +8975,20 @@
         <v>149.59952999999999</v>
       </c>
       <c r="AR50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52.907188700321193</v>
       </c>
       <c r="AS50">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:45" ht="15.75" thickBot="1">
+    <row r="52" spans="2:45" ht="15" thickBot="1">
       <c r="S52" s="11">
         <f>SUM(S4:S46)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:45" ht="15.75" thickTop="1"/>
+    <row r="53" spans="2:45" ht="15" thickTop="1"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B50 F3:F50 AO3:AO50 AS3:AS50">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
